--- a/test/Book1.xlsx
+++ b/test/Book1.xlsx
@@ -467,6 +467,43 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="true" fPrintsWithSheet="true"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 5" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="false"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:ln/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
